--- a/documentos/Cronograma PP - Ian Cisneros.xlsx
+++ b/documentos/Cronograma PP - Ian Cisneros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanCisneros\source\repos\pp\practicas-profesionalizantes\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB698A-D4F6-4770-A8DE-45112FC64DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6717E87-E8EC-47FF-AF1D-A22C0E1281A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-9600" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,11 +1064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28:C30"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -18249,42 +18249,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BB1:BF1"/>
-    <mergeCell ref="BG1:BK1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BQ1:BU1"/>
-    <mergeCell ref="BV1:BZ1"/>
-    <mergeCell ref="CA1:CE1"/>
-    <mergeCell ref="CF1:CJ1"/>
-    <mergeCell ref="CK1:CO1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CU1:CY1"/>
-    <mergeCell ref="CZ1:DD1"/>
-    <mergeCell ref="DE1:DI1"/>
-    <mergeCell ref="DJ1:DN1"/>
-    <mergeCell ref="DO1:DS1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="DY1:EC1"/>
-    <mergeCell ref="ED1:EH1"/>
-    <mergeCell ref="EI1:EM1"/>
-    <mergeCell ref="EN1:ER1"/>
-    <mergeCell ref="ES1:EW1"/>
-    <mergeCell ref="GQ1:GU1"/>
-    <mergeCell ref="EX1:FB1"/>
-    <mergeCell ref="FC1:FG1"/>
-    <mergeCell ref="FH1:FL1"/>
-    <mergeCell ref="FM1:FQ1"/>
-    <mergeCell ref="FR1:FV1"/>
     <mergeCell ref="IT1:IV1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="HU1:HY1"/>
@@ -18301,6 +18265,42 @@
     <mergeCell ref="GB1:GF1"/>
     <mergeCell ref="GG1:GK1"/>
     <mergeCell ref="GL1:GP1"/>
+    <mergeCell ref="GQ1:GU1"/>
+    <mergeCell ref="EX1:FB1"/>
+    <mergeCell ref="FC1:FG1"/>
+    <mergeCell ref="FH1:FL1"/>
+    <mergeCell ref="FM1:FQ1"/>
+    <mergeCell ref="FR1:FV1"/>
+    <mergeCell ref="DY1:EC1"/>
+    <mergeCell ref="ED1:EH1"/>
+    <mergeCell ref="EI1:EM1"/>
+    <mergeCell ref="EN1:ER1"/>
+    <mergeCell ref="ES1:EW1"/>
+    <mergeCell ref="CZ1:DD1"/>
+    <mergeCell ref="DE1:DI1"/>
+    <mergeCell ref="DJ1:DN1"/>
+    <mergeCell ref="DO1:DS1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="CA1:CE1"/>
+    <mergeCell ref="CF1:CJ1"/>
+    <mergeCell ref="CK1:CO1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CU1:CY1"/>
+    <mergeCell ref="BB1:BF1"/>
+    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BQ1:BU1"/>
+    <mergeCell ref="BV1:BZ1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
